--- a/story/主线剧情/main/level_main_08-04_end.xlsx
+++ b/story/主线剧情/main/level_main_08-04_end.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
   <si>
     <t>zh_CN</t>
   </si>
@@ -22,6 +22,12 @@
     <t>ja_JP</t>
   </si>
   <si>
+    <t>en_US</t>
+  </si>
+  <si>
+    <t>ko_KR</t>
+  </si>
+  <si>
     <t xml:space="preserve">[name="阿丽娜"] 所以呢，你打跑了他们，是吗？
 </t>
   </si>
@@ -443,6 +449,430 @@
   </si>
   <si>
     <t xml:space="preserve">[name="タルラ"] まず手始めに必要なのはパン。それから……火だ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] So? You fought them off, is that it?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Yeah.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] I was right not to go with you.  Burning people alive... If I ever have to smell that again, I’m sure I’ll throw up.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Alina, don’t force yourself.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  I’m the one who followed you in the first place.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  And I’ll protect your Infected here. I will.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  No, I’m not here to beg you to—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Of course you’re not. Alina, without you, I wouldn’t have the time to go gather resources or info.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Who’s your contact? Would it be safe to tell me?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  ——
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Are you worried I’m an Ursus spy?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Just wondering if it’d be better not to get you wrapped up in this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  The moment we became Infected, life for us couldn’t get any worse.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I’m in contact with Infected in other places.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Trying to keep tabs on which way the cities are moving, so I can help the Infected surviving out in the Northwestern Tundra as best as I can.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  What you’re doing is... insane, in a lot of ways.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Where did your conviction come from? Did someone teach you all this? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] No.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] What taught me was both malignant and deranged, brimming with the arrogance of rule and the terror of power.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] And I vowed to walk against it. I’m going to tear their decorous flesh straight from their bones, pull apart the noble cities their pride built layer by layer, and let everyone know the truth, everyone out on the Tundra... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] And after that, we’ll decide our own destinies.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] We’re going to clear this land out. We’ll found our own homeland, and if anyone thinks to stop us, we’ll topple them right then and there. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Part of this world belonged to the Infected in the first place... just as so many places across this land belong to all people.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] ...Be more realistic, Talulah. This is all too out there. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] If you do this, the village will be destroyed. They’ll have nowhere to go, and the Patrol Unit will chase them down.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] And if I don’t do this, the village would still end up abandoned over time.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] Not everyone can join the army. The elderly, children, the injured and sick. If you have them give up everything they’ve ever survived on, they’ll die no matter the soil quality. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] I know, Alina. So we’ll find somewhere new.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Come on. Let’s go. We’ve got somewhere we can stay tonight.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] *Sigh*...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Thank you for having us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"] Ain’t nothing. Without you, we’d probably all be dead by now. Though we’re still pretty much at death’s door.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"] Sorry. Back at the start, seeing you, I was readying up to fight. That was all my bad.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"] Don’t really have anything left to welcome you with, either. Just put up with this bit of oat gruel, I guess.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] We’re extremely thankful, sir. You shouldn’t have, honestly.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"] No, it’s nothing. We only had this bit left over, anyway. However many days we have left, makes no difference.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"] Wanna set up a village, huh? Doesn’t matter how far you go... there’s no point. Not much point at all.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"] We can’t run. You know how big Ursus is? There’s no point heading anywhere when there’s patrol guys all over... and other people aren’t gonna want us. We’ve got nowhere to go.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Then come with me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"] ...Where? Now?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] It doesn’t need to be now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] I’ll wait until you’ve thought it all through. Or if you end up with absolutely nowhere left to go, and you still want to live on, come find me, or find one of my brothers.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] If we head for the wilderness, life in the tundra’s... cruel, to say the least.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] But we’ve got places to go. Places without the hearth of civilization as of yet. We’ll find somewhere we can sow and harvest; we have so many people, they’d surely be able to help out with business, and we’d have an income.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] We can always live on.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"] And if the patrolmen come?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] —We’d defeat them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"] Huh?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"] ...What did you just say?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] What I can do, you can too. You were correct, arming yourself against me back there.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] If people think to come and rob us, we’ll come together and fight them off. The Infected have strength.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] We Infected can, bit by bit, regain our own lives.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Our bread. Our flames.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"] 그래서, 네가 그자들을 쫓아낸 거야?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 응.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"] 널 안 따라가길 잘했다. 사람이 불에 그을리는 냄새…… 그걸 다시 맡는다면 분명 토했을 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 알리나, 무리하지 않아도 돼.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  널 따라가겠다고 한 건 나였어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  그러니까 나도 너희 같은 감염자를 지켜줄 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  아니, 난 부탁하는 게 아니라……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  아니란 거 알아. 알리나, 네가 없었다면 자원과 정보를 수집할 시간 따윈 없었을 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  너와 통신하는 사람이 누군지 말해줄 수 있을까?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  날 우르수스의 스파이로 의심하는 거야?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  널 이런 일에 휘말려 한 게 과연 맞는 일인지 고민 중이야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  감염자가 된 이상 더 나빠질 게 있을까.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  내가 연락한 건 다른 도시의 감염자였어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  그들을 통해 도시의 동향을 빠르게 파악해야 툰드라에서 생존한 감염자를 최대한 빨리 도울 수 있을 테니까.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  정말…… 엄청난 일을 하고 있구나.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  네 그런 정의감은 어디에서 나오는 거야? 누군가 너한테 그렇게 해야 한다고 가르쳐 준 거야?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 아니.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 내가 받은 교육은, 통치자의 오만함과 권력의 공포로 가득한 악랄한 정신병자의 가르침뿐이었어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 난 그들에게 반기를 들었어. 고상한 척 구는 가면을 벗겨내고, 자랑해 마지않는 귀족의 도시에 숨겨진 진실을 설원 사람들을 포함한 세상 모두에게 알릴 거야……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 그런 뒤에 우리 스스로 운명을 결정하는 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 이 땅을 일궈 우리만의 터전을 세울 거야. 그걸 막는 자가 있다면 그자를 쓰러뜨릴 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 이 땅의 일부는 본래 감염자들의 것이었어…… 이곳처럼 많은 곳은 원래 모두를 위한 곳이었지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"] ……현실적으로 생각해, 탈룰라. 그건 허황된 꿈일 뿐이야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"] 네 말대로 하면 마을은 완전히 사라질 거야. 갈 곳이 없어진 사람들을 감시팀이 뒤쫓겠지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 내가 아니더라도 마을은 결국 점점 폐허로 변할 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"] 모두가 전사가 될 수 있는 건 아냐. 노인, 아이, 몸이 아픈 사람들은 아무리 척박하기는 해도, 삶의 터전을 버린 채 살아남긴 어려워.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 나도 알아, 알리나. 그래서 새로운 곳을 찾으려는 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 자, 가자! 오늘 밤 지낼 곳을 찾았어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"] 하……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 대접해줘서 고맙다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"] 내가 더 고맙지. 너희가 아니었다면 우린 모두 죽은 목숨이었을 테니까. 뭐 이미 죽은 거나 다름없이 살고 있지만……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"] 다짜고짜 주먹을 휘둘러서 미안했다, 내 실수였어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"] 대접할 만한 게 마땅치 않아서…… 보리죽이지만 이거라도……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"] 감사합니다, 하지만 이러실 필욘 없어요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"] 별거 아냐, 어차피 남은 건 이것뿐이라…… 며칠 더 버티다 죽나 지금 죽나 거기서 거기지 뭐.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"] 마을을 지으려고 이렇게 먼 곳까지 나왔지만…… 소용없었어, 아무런 소용도 없었지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"] 도망칠 방법이 없었어. 우르수스 땅이 이렇게나 넓은데, 어딜 가든 감시망에서 벗어날 수 없었어, 감시팀이 사방에 깔렸으니…… 아무도 우릴 받아주지 않아 갈 곳도 없는 상태야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 그럼, 나와 함께 가지 않겠나.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"] ……어디를? 지금?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 당장 결정하진 않아도 돼.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 생각이 정리되거나 막다른 길에 다다랐을 때, 만약 그래도 살고 싶다면…… 나나 내 친구를 찾아와라.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 황야나 툰드라에서의 삶은…… 무척 고되겠지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 하지만 우리에겐 갈 곳이 있다. 개척되지 않은 땅에서 농작물을 심고 수확할 수 있는 땅을 찾을 거다. 게다가 우리에겐 많은 사람이 있으니, 힘을 합쳐 농사를 짓고 수확물을 팔면 돈을 벌 수도 있을 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 그렇게 우리는 살아갈 수 있을 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"] 그래도 감시팀이 또 쫓아오면?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] ……싸워서 물리쳐야지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"] 뭐, 뭐야?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"] 방금 뭐라고……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 나도, 너희도 그렇게 할 수 있다. 조금 전에 무기를 들고 내게 맞선 것처럼, 그렇게 해야만 해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 우리의 것을 빼앗으려는 자가 있으면 모두 힘을 합쳐서 물리쳐야 한다. 우리에겐 그럴 수 있는 힘이 있고.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 우리의 삶을 조금씩 되찾는 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 빵도, 불도……
 </t>
   </si>
 </sst>
@@ -801,442 +1231,766 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" t="s">
+        <v>146</v>
+      </c>
+      <c r="D38" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" t="s">
+        <v>147</v>
+      </c>
+      <c r="D39" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" t="s">
+        <v>148</v>
+      </c>
+      <c r="D40" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" t="s">
+        <v>149</v>
+      </c>
+      <c r="D41" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" t="s">
+        <v>152</v>
+      </c>
+      <c r="D44" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" t="s">
+        <v>153</v>
+      </c>
+      <c r="D45" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" t="s">
+        <v>154</v>
+      </c>
+      <c r="D46" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" t="s">
+        <v>155</v>
+      </c>
+      <c r="D47" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" t="s">
+        <v>156</v>
+      </c>
+      <c r="D48" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" t="s">
+        <v>157</v>
+      </c>
+      <c r="D49" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" t="s">
+        <v>158</v>
+      </c>
+      <c r="D50" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" t="s">
+        <v>159</v>
+      </c>
+      <c r="D51" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" t="s">
+        <v>160</v>
+      </c>
+      <c r="D52" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B53" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" t="s">
+        <v>161</v>
+      </c>
+      <c r="D53" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>109</v>
+      </c>
+      <c r="C54" t="s">
+        <v>162</v>
+      </c>
+      <c r="D54" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
